--- a/Ferramenta de Controle de Investimentos com Excel.xlsx
+++ b/Ferramenta de Controle de Investimentos com Excel.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{466A9454-40A2-4079-B081-C09D405B2500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CC1D48-7C80-4C7A-B0F2-0FBB3C58744E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="0" windowWidth="10365" windowHeight="10815" xr2:uid="{D6A52D0B-AB41-44C4-842B-0EE832643429}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D6A52D0B-AB41-44C4-842B-0EE832643429}"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Aporte">APP!$D$18</definedName>
-    <definedName name="Quant_Anos">APP!$D$19</definedName>
-    <definedName name="Redimento_Carteira">APP!$D$13</definedName>
+    <definedName name="Aporte">APP!$D$21</definedName>
+    <definedName name="Quant_Anos">APP!$D$22</definedName>
+    <definedName name="Redimento_Carteira">APP!$D$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -153,7 +153,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +243,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -299,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -510,19 +516,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -537,14 +530,12 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,51 +543,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="8" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="8" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,42 +581,31 @@
     <xf numFmtId="164" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -661,30 +613,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -708,47 +690,48 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>202745</xdr:colOff>
+      <xdr:colOff>421820</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>108855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>432706</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>154669</xdr:rowOff>
+      <xdr:colOff>329570</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
+        <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EBEC72-F8D2-46B2-B66A-11119ED81845}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD93E7BD-449C-AF74-D0C1-7B6A078EBA37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect b="9606"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="202745" y="122464"/>
-          <a:ext cx="6954611" cy="1556205"/>
+          <a:off x="421820" y="108855"/>
+          <a:ext cx="6480000" cy="2160000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1057,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97A48A3-DE76-4AE3-97BD-568656F1999F}">
-  <dimension ref="A10:H236"/>
+  <dimension ref="A13:H239"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,499 +1060,464 @@
     <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="17" t="s">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="7">
-        <v>2800</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="8">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="35">
-        <f>D12*30%</f>
-        <v>840</v>
-      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="5">
+        <v>3100</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="6">
+        <v>9.5999999999999992E-3</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="23">
+        <f>D15*30%</f>
+        <v>930</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="36" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="7">
-        <v>860</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="36" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="5">
+        <v>850</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="12">
+      <c r="C22" s="52"/>
+      <c r="D22" s="10">
         <v>6</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="36" t="s">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="13">
+      <c r="C23" s="52"/>
+      <c r="D23" s="11">
         <v>1.0789999999999999E-2</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="23" t="s">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25">
-        <f>FV(D20,D19*12,D18*-1)</f>
-        <v>92905.972852775943</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="26" t="s">
+      <c r="C24" s="54"/>
+      <c r="D24" s="15">
+        <f>FV(D23,D22*12,D21*-1)</f>
+        <v>91825.670842859938</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28">
-        <f>D21*1%</f>
-        <v>929.05972852775949</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="65" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="16">
+        <f>D24*1%</f>
+        <v>918.25670842859938</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67" t="s">
+      <c r="C28" s="45"/>
+      <c r="D28" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>2</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="33">
-        <f>FV($D$20,$A26*12,$D$18*-1)</f>
-        <v>23415.759475974886</v>
-      </c>
-      <c r="D26" s="30">
-        <f>C26*Redimento_Carteira+Redimento_Carteira</f>
-        <v>224.8008909693589</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="C29" s="21">
+        <f>FV($D$23,$A29*12,$D$21*-1)</f>
+        <v>23143.483202998435</v>
+      </c>
+      <c r="D29" s="18">
+        <f>C29*Redimento_Carteira+Redimento_Carteira</f>
+        <v>222.18703874878497</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>5</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="33">
-        <f>FV($D$20,$A27*12,$D$18*-1)</f>
-        <v>72048.146038699371</v>
-      </c>
-      <c r="D27" s="30">
-        <f>C27*Redimento_Carteira+Redimento_Carteira</f>
-        <v>691.6718019715139</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="C30" s="21">
+        <f>FV($D$23,$A30*12,$D$21*-1)</f>
+        <v>71210.376898714501</v>
+      </c>
+      <c r="D30" s="18">
+        <f>C30*Redimento_Carteira+Redimento_Carteira</f>
+        <v>683.62921822765918</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>10</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="33">
-        <f>FV($D$20,$A28*12,$D$18*-1)</f>
-        <v>209224.4227759481</v>
-      </c>
-      <c r="D28" s="30">
-        <f>C28*Redimento_Carteira+Redimento_Carteira</f>
-        <v>2008.5640586491018</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="C31" s="21">
+        <f>FV($D$23,$A31*12,$D$21*-1)</f>
+        <v>206791.58065064636</v>
+      </c>
+      <c r="D31" s="18">
+        <f>C31*Redimento_Carteira+Redimento_Carteira</f>
+        <v>1985.2087742462049</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>20</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B32" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="33">
-        <f>FV($D$20,$A29*12,$D$18*-1)</f>
-        <v>967670.6240834893</v>
-      </c>
-      <c r="D29" s="30">
-        <f>C29*Redimento_Carteira+Redimento_Carteira</f>
-        <v>9289.6475912014957</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
+      <c r="C32" s="21">
+        <f>FV($D$23,$A32*12,$D$21*-1)</f>
+        <v>956418.64008251845</v>
+      </c>
+      <c r="D32" s="18">
+        <f>C32*Redimento_Carteira+Redimento_Carteira</f>
+        <v>9181.6285447921764</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B33" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="34">
-        <f>FV($D$20,$A30*12,$D$18*-1)</f>
-        <v>3717065.9033040544</v>
-      </c>
-      <c r="D30" s="32">
-        <f>C30*Redimento_Carteira+Redimento_Carteira</f>
-        <v>35683.842271718917</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="9"/>
+      <c r="C33" s="22">
+        <f>FV($D$23,$A33*12,$D$21*-1)</f>
+        <v>3673844.2067540074</v>
+      </c>
+      <c r="D33" s="20">
+        <f>C33*Redimento_Carteira+Redimento_Carteira</f>
+        <v>35268.913984838466</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47">
-        <f>Aporte</f>
-        <v>860</v>
-      </c>
-      <c r="E34" s="9"/>
+    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="9"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="7"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="51">
-        <f>VLOOKUP($D$33&amp;"-"&amp;B37,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.3</v>
-      </c>
-      <c r="D37" s="54">
-        <f>C37*$D$34</f>
-        <v>258</v>
-      </c>
-      <c r="E37" s="9"/>
+    <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31">
+        <f>Aporte</f>
+        <v>850</v>
+      </c>
+      <c r="E37" s="7"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="51">
-        <f>VLOOKUP($D$33&amp;"-"&amp;B38,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="54">
-        <f t="shared" ref="D38:D42" si="0">C38*$D$34</f>
-        <v>430</v>
-      </c>
-      <c r="E38" s="9"/>
+    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="51">
-        <f>VLOOKUP($D$33&amp;"-"&amp;B39,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D39" s="54">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="E39" s="9"/>
+    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="7"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="51">
-        <f>VLOOKUP($D$33&amp;"-"&amp;B40,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D40" s="54">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="E40" s="9"/>
+    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="34">
+        <f>VLOOKUP($D$36&amp;"-"&amp;B40,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D40" s="35">
+        <f>C40*$D$37</f>
+        <v>255</v>
+      </c>
+      <c r="E40" s="7"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="43" t="s">
+    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="34">
+        <f>VLOOKUP($D$36&amp;"-"&amp;B41,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="35">
+        <f t="shared" ref="D41:D45" si="0">C41*$D$37</f>
+        <v>425</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="34">
+        <f>VLOOKUP($D$36&amp;"-"&amp;B42,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="35">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="34">
+        <f>VLOOKUP($D$36&amp;"-"&amp;B43,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D43" s="35">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="51">
-        <f>VLOOKUP($D$33&amp;"-"&amp;B41,Planilha2!$A:$D,4,FALSE)</f>
+      <c r="C44" s="34">
+        <f>VLOOKUP($D$36&amp;"-"&amp;B44,Planilha2!$A:$D,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="54">
+      <c r="D44" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="43" t="s">
+      <c r="E44" s="7"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="51">
-        <f>VLOOKUP($D$33&amp;"-"&amp;B42,Planilha2!$A:$D,4,FALSE)</f>
+      <c r="C45" s="34">
+        <f>VLOOKUP($D$36&amp;"-"&amp;B45,Planilha2!$A:$D,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="54">
+      <c r="D45" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="55">
-        <f>SUM(D37:D42)</f>
-        <v>860</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="7"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+    <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="36">
+        <f>SUM(D40:D45)</f>
+        <v>850</v>
+      </c>
+      <c r="E46" s="7"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+    <row r="47" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+    <row r="48" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
@@ -3265,20 +3213,47 @@
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
     </row>
+    <row r="237" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+    </row>
+    <row r="239" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31:D31 D33" xr:uid="{A47A83DE-AF31-412F-9C27-D3711649A113}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34:D34 D36" xr:uid="{A47A83DE-AF31-412F-9C27-D3711649A113}">
       <formula1>"Conservador,Moderado,Agressivo"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3301,450 +3276,450 @@
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="37" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="str">
+      <c r="A3" s="7" t="str">
         <f>B3&amp;"-"&amp;C3</f>
         <v>Conservador-PAPEL</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="34">
         <v>0.3</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="43">
         <f>VLOOKUP(F3,$A:$D,4,FALSE)</f>
         <v>0.32</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="str">
+      <c r="A4" s="7" t="str">
         <f t="shared" ref="A4:A20" si="0">B4&amp;"-"&amp;C4</f>
         <v>Conservador-TIJOLO</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="34">
         <v>0.5</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="str">
+      <c r="A5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HÍBRIDOS</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="34">
         <v>0.1</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="str">
+      <c r="A6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-FOFs</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="34">
         <v>0.1</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="str">
+      <c r="A7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-DESENVOLVIMENTO</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="34">
         <v>0</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="57" t="str">
+      <c r="A8" s="38" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HOTELARIAS</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="40">
         <v>0</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="str">
+      <c r="A9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-PAPEL</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="34">
         <v>0.32</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="str">
+      <c r="A10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-TIJOLO</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="34">
         <v>0.35</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="str">
+      <c r="A11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HÍBRIDOS</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="34">
         <v>0.08</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="str">
+      <c r="A12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-FOFs</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="34">
         <v>0.05</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="str">
+      <c r="A13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-DESENVOLVIMENTO</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="34">
         <v>0.1</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="57" t="str">
+      <c r="A14" s="38" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HOTELARIAS</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="40">
         <v>0.1</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="str">
+      <c r="A15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-PAPEL</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="34">
         <v>0.5</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="str">
+      <c r="A16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-TIJOLO</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="34">
         <v>0.1</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="str">
+      <c r="A17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HÍBRIDOS</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="34">
         <v>0.05</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="str">
+      <c r="A18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-FOFs</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="34">
         <v>0.05</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="str">
+      <c r="A19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-DESENVOLVIMENTO</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="34">
         <v>0.2</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="str">
+      <c r="A20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HOTELARIAS</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="34">
         <v>0.1</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
